--- a/biology/Botanique/Ulmus_laevis/Ulmus_laevis.xlsx
+++ b/biology/Botanique/Ulmus_laevis/Ulmus_laevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Orme lisse, orme blanc ou orme pédonculé (Ulmus laevis), est une espèce de plantes à fleurs de la famille des Ulmacées.
 C'est un arbre.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>U. pedunculata Fougeroux de Bondaroy
 U. effusa Willd.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette description est inspirée de celle de Christian You, 2012.
 Port général : arbre de 15 à 20 m, mais pouvant atteindre 30 m. Forme de cône arrondi à la cime. Tronc droit, bosselé au-dessus du tiers inférieur et garni de gourmands grêles. Base munie de grosses racines à contreforts très développés lui assurant une bonne fixation dans les zones de prédilection des forêts alluviales. Écorce d’abord lisse devenant épaisse et fissurée.
@@ -581,10 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-Forêts alluviales (alliance de l’Alnion glutinosae) et de l’aulnaie-frênaie (alliance de l’Alno Padion) ordre des Fagetalia sylvaticae ; c’est une espèce de demi-ombre sur des matériaux alluviaux fins, limono-argileux, riches, neutres à légèrement acides. En Suisse, c'est une espèce typique du Fraxinion, où il s'installe dans des milieux trop humides pour le hêtre[1].
-Distribution
-L’orme lisse est essentiellement présent au nord de la partie occidentale de l'Écozone paléarctique. Devenu rare à l'état naturel (du fait notamment de la graphiose), il est cependant présent sur la majeure partie du territoire de la France métropolitaine, à l'exception notamment des zones suivantes : majeure partie du Midi-Méditerranéen et des Alpes, Pays basque, tiers nord de Nouvelle-Aquitaine, Maine, Haute-Normandie, Artois[2].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêts alluviales (alliance de l’Alnion glutinosae) et de l’aulnaie-frênaie (alliance de l’Alno Padion) ordre des Fagetalia sylvaticae ; c’est une espèce de demi-ombre sur des matériaux alluviaux fins, limono-argileux, riches, neutres à légèrement acides. En Suisse, c'est une espèce typique du Fraxinion, où il s'installe dans des milieux trop humides pour le hêtre.
 </t>
         </is>
       </c>
@@ -610,12 +629,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’orme lisse est essentiellement présent au nord de la partie occidentale de l'Écozone paléarctique. Devenu rare à l'état naturel (du fait notamment de la graphiose), il est cependant présent sur la majeure partie du territoire de la France métropolitaine, à l'exception notamment des zones suivantes : majeure partie du Midi-Méditerranéen et des Alpes, Pays basque, tiers nord de Nouvelle-Aquitaine, Maine, Haute-Normandie, Artois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ulmus_laevis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ulmus_laevis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Propriétés et utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De croissance assez rapide, le bois de l’Orme lisse est mou, Jaunâtre, noueux et peu durable. Il n'est pas utilisé[3], à l'exception notable de la loupe d'orme recherchée en ébénisterie d'art[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De croissance assez rapide, le bois de l’Orme lisse est mou, Jaunâtre, noueux et peu durable. Il n'est pas utilisé, à l'exception notable de la loupe d'orme recherchée en ébénisterie d'art.
 </t>
         </is>
       </c>
